--- a/Version8 - Multi-Output.xlsx
+++ b/Version8 - Multi-Output.xlsx
@@ -8,6 +8,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_output_mobilenetv2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_output_inceptionv3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_output_resnet50" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_output_small_xception" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="multi_output_basic_cnn" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +22,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +50,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +440,7091 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_squared_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>val_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.609059572219849</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4711813628673553</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.37096905708313</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9068845510482788</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.402928113937378</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6288391351699829</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.219215869903564</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8952316045761108</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.416113615036011</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5441712141036987</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.265861749649048</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8982495665550232</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.360426664352417</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5590838193893433</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.23820972442627</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.894446849822998</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.344865798950195</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6072078943252563</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.242611885070801</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8952943682670593</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.312933444976807</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6007288098335266</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.227958917617798</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8946521878242493</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.307697534561157</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6323835253715515</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.235384702682495</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8945322036743164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.294917821884155</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.687662661075592</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.233643293380737</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.892099142074585</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.288671493530273</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6411007046699524</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.23580265045166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8948203325271606</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.275527715682983</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5970848798751831</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.229703903198242</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8930779099464417</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.273161172866821</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6479963660240173</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.232790231704712</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.894220232963562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.258023738861084</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6012493371963501</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.221774816513062</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8927990198135376</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.26708722114563</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6406453251838684</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.234474658966064</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8947288393974304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.26056981086731</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6220718622207642</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.23054313659668</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8926792740821838</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.25957989692688</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6534608602523804</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.231734752655029</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8938335776329041</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.242418766021729</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6814159154891968</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.215685129165649</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8898534178733826</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.258069038391113</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6491022706031799</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.233012914657593</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8943911790847778</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.246996402740479</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5976054072380066</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.223062992095947</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8924943804740906</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.257105588912964</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.652289867401123</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.233903169631958</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8949871063232422</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.253650426864624</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5825091004371643</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.231342554092407</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8927885890007019</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.254857063293457</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6491022706031799</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.232731819152832</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8945624232292175</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.239489555358887</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6684018969535828</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.216812133789062</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.890150785446167</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.255785942077637</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6501431465148926</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.233748197555542</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8945518136024475</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.265311241149902</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6002082228660583</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.242805957794189</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8920493125915527</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.25629734992981</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.653200626373291</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.234358310699463</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.894787073135376</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.247846126556396</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6647579669952393</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.226068735122681</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8929875493049622</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.255938768386841</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6585350036621094</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.233987331390381</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8945881724357605</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.239301204681396</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6710047125816345</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.216594696044922</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8918966054916382</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.256545543670654</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6515092253684998</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.234651565551758</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8950343728065491</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.251625776290894</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6288391351699829</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.229694366455078</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8927291631698608</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.254762649536133</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6494925618171692</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.233508825302124</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8949632048606873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.236407279968262</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6137428283691406</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.21583104133606</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8932214975357056</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.254836797714233</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6494275331497192</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.233846664428711</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8949358463287354</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.251279830932617</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6428943276405334</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.229860782623291</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8933387398719788</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.254697561264038</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6498829126358032</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.232402086257935</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8944075107574463</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.237504243850708</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6392503976821899</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.214260578155518</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.895330011844635</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.255717515945435</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6518995761871338</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.232917070388794</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8946821689605713</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.240310668945312</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6022904515266418</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.217922210693359</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8927462100982666</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.239374876022339</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6725214719772339</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.218651056289673</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8919571042060852</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.232610702514648</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6824570298194885</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.212989330291748</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8918800950050354</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.232124090194702</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6822794675827026</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.213177442550659</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8905430436134338</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.240783929824829</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6350858807563782</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.222348928451538</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8920366168022156</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.227254390716553</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.688069224357605</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.209218740463257</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8894685506820679</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.242959260940552</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6116605997085571</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.225253105163574</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8915400505065918</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.224609375</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6944444179534912</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.207129001617432</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8888460993766785</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.24235987663269</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5778240561485291</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.225056648254395</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8920658826828003</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.221220970153809</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6916471719741821</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.203973293304443</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8882158398628235</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.227692842483521</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6428943276405334</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.21048641204834</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8909844160079956</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.222574710845947</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6887197494506836</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.2054123878479</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8883335590362549</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.228350877761841</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6423737406730652</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.211227416992188</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8909398913383484</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.222463846206665</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6893702745437622</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.205373764038086</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8883607387542725</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.226964950561523</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6418532133102417</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.209908008575439</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8907257318496704</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.219001770019531</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6919724345207214</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.201976299285889</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8874131441116333</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.228551864624023</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6293597221374512</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.211554288864136</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8906811475753784</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.220064640045166</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6965261697769165</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.20309042930603</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8874322772026062</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.226985454559326</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6382092833518982</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.210042715072632</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8906134366989136</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.219000101089478</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.694054126739502</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.202078580856323</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8876099586486816</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.22841739654541</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6340447664260864</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.211520433425903</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8904610276222229</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.21973991394043</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6936637759208679</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.20284628868103</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8876373767852783</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.227286338806152</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6387298107147217</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.210395574569702</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8904047012329102</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.219646453857422</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6954852938652039</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.202759027481079</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8876676559448242</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.22685432434082</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6387298107147217</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.209969282150269</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8903840184211731</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.219003677368164</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.699974000453949</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.20211935043335</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8872417807579041</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.22643780708313</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6382092833518982</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.209555625915527</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8903639912605286</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.216861724853516</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6953551769256592</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.199985265731812</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8871675729751587</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.22649621963501</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6376886963844299</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.209620237350464</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8903408050537109</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.218694686889648</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6943793892860413</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.201822757720947</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8873487114906311</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.226269006729126</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6387298107147217</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.209397077560425</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8903167247772217</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.218460321426392</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6983476281166077</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.201589822769165</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8871980905532837</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.22634220123291</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6387298107147217</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.209475517272949</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8903164863586426</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.219723463058472</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6937288641929626</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.202858686447144</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8875443339347839</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.226312398910522</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6371681690216064</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.209450960159302</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.890317440032959</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.21825647354126</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6972417235374451</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.201397180557251</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8875253796577454</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.226684093475342</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6366475820541382</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.209826469421387</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8903123140335083</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.21943187713623</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6956154108047485</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.202575922012329</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8875769376754761</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.226686000823975</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6376886963844299</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.209834098815918</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8903027176856995</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.21914005279541</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6970465779304504</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.202289819717407</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8873209953308105</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.22620701789856</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6387298107147217</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.209359645843506</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8902844190597534</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.219626426696777</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6975669860839844</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.202780723571777</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.887471616268158</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.225983142852783</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6366475820541382</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.209141492843628</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8902999758720398</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.2177414894104</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6969815492630005</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.200901031494141</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8874508738517761</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.225922107696533</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6350858807563782</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.209083795547485</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.890277087688446</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.218858480453491</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6950950026512146</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.202022314071655</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8873113393783569</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.225966930389404</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6319625377655029</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.20913290977478</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8902831673622131</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3.219504356384277</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6945745348930359</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.202672481536865</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8874541521072388</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.225674152374268</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6319625377655029</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.208844900131226</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8902845978736877</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3.219748973846436</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6941842436790466</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.202917814254761</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8873267769813538</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.225564002990723</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6319625377655029</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.208739042282104</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8902806043624878</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3.217992305755615</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6950950026512146</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.201170444488525</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.887294590473175</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.225786924362183</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6293597221374512</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.208967685699463</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8903058171272278</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3.219233274459839</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6958756446838379</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.202414989471436</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8875139951705933</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.225892543792725</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6288391351699829</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.209076642990112</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8903142809867859</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.218097686767578</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6944444179534912</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.201287031173706</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8875716328620911</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.22630786895752</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6283186078071594</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.209495544433594</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8903040289878845</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3.219426870346069</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6913869380950928</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.202616930007935</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.887582540512085</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.226429462432861</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6288391351699829</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.209621429443359</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8902732133865356</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3.219382524490356</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6945095062255859</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.202573776245117</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8875758051872253</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.226350784301758</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6293597221374512</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.209548473358154</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8902796506881714</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_squared_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>val_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.827853441238403</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4326697885990143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.535831212997437</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9185788631439209</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.481839179992676</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.686100959777832</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.229168653488159</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.900151252746582</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.518133640289307</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4914780259132385</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.301943302154541</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.903192937374115</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.408359289169312</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6923477649688721</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.225873708724976</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8988689184188843</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.421314001083374</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5505464673042297</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.266904354095459</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9000027775764465</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.355337619781494</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5814679861068726</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.226278066635132</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8978639841079712</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.36550235748291</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5897085666656494</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.256741523742676</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8989232778549194</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.314066410064697</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6262363195419312</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.223414182662964</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8973737955093384</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.328912734985352</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6023939847946167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.252560138702393</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8984660506248474</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.286607265472412</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5986465215682983</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.222564220428467</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8975659608840942</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.308552026748657</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6084439158439636</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.253911733627319</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8990199565887451</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.266595125198364</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6371681690216064</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.220649003982544</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8954362869262695</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.290392637252808</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6097449660301208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.250651597976685</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8983859419822693</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.257478713989258</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6080166697502136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.2230224609375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8980024456977844</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.282870531082153</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6048009395599365</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.252202749252319</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8988021016120911</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.251134157180786</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6173867583274841</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.223897218704224</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8974909782409668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.279442310333252</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6109159588813782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.254303216934204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8992370367050171</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.246621608734131</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6418532133102417</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.223118782043457</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8974946141242981</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.276683807373047</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6074681282043457</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.254896640777588</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8995245099067688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.250046730041504</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5981259942054749</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.22965669631958</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8978604078292847</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.275536775588989</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6040202975273132</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.255661010742188</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8998628258705139</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.251439094543457</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6158251166343689</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.232101202011108</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9011954069137573</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.274374485015869</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6050611734390259</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.255578994750977</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.89975506067276</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.245095014572144</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6298802495002747</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.227018594741821</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.898996889591217</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.275318145751953</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6016783714294434</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.256953239440918</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.900020956993103</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.249774694442749</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6106194853782654</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.231967449188232</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.900982677936554</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.274854421615601</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5885375738143921</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.256770133972168</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9000505208969116</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.246118068695068</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5918792486190796</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.227754592895508</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8978062868118286</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.277111530303955</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5945225358009338</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.258621454238892</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9005913138389587</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.247414588928223</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6022904515266418</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.228981018066406</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8984737396240234</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.2593674659729</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6223653554916382</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.242510795593262</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8975920081138611</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.238195180892944</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5970848798751831</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.222435712814331</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8959907293319702</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.254281282424927</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.629846453666687</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.239433288574219</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8963972330093384</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.234484434127808</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5913586616516113</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.22024393081665</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8953493237495422</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.251620054244995</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6304969787597656</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.237929582595825</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8959806561470032</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.233388423919678</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5877147316932678</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.220112085342407</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8953794240951538</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.249221086502075</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6310174465179443</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.236272811889648</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8957354426383972</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.233264207839966</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5783445835113525</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.220550775527954</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8952523469924927</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.247034072875977</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6259433031082153</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.234508037567139</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8952481746673584</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.232740163803101</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5720978379249573</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.22030782699585</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8943990468978882</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.244776725769043</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6328389048576355</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.232524394989014</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8948322534561157</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.230807304382324</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5523164868354797</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.218666315078735</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8943507671356201</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.243608951568604</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6314077377319336</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.23161506652832</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8946923613548279</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.236987829208374</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5122331976890564</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.225009202957153</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8947187066078186</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.241436004638672</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6288056373596191</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.229591846466064</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8941234350204468</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.233684062957764</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5231650471687317</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.22192645072937</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8948255777359009</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.2388596534729</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6396044492721558</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.227154731750488</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8935784697532654</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.239576578140259</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5174388289451599</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.227880001068115</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8944938778877258</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.236202239990234</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6204788088798523</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.224563598632812</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8930789232254028</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.22487211227417</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5684539079666138</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.213266611099243</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8937002420425415</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.233607292175293</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6284803748130798</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.222038745880127</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8926178216934204</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.223503828048706</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.570536196231842</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.211961269378662</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8935490250587463</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.235269546508789</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6394093036651611</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.2237548828125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8927865028381348</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.223695516586304</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5877147316932678</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.212206363677979</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8935337066650391</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.234994173049927</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6336846351623535</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.223526954650879</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8928273916244507</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.223949670791626</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5642894506454468</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.21250057220459</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8937119841575623</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.232613563537598</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.635766327381134</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.221177101135254</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8922776579856873</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.222385883331299</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6262363195419312</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.210964202880859</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8934201598167419</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.23236346244812</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6409705877304077</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.220956802368164</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.892137885093689</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.223133325576782</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5913586616516113</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.211747884750366</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8935087323188782</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.231512069702148</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6345303058624268</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.220138311386108</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8919838070869446</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.223466873168945</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5731390118598938</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.212106466293335</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8933107852935791</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.231216669082642</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6354410648345947</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.219875574111938</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8918051719665527</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.222671031951904</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5877147316932678</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.211344957351685</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.893531858921051</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.23200798034668</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6259433031082153</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.220684766769409</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8922433853149414</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.221561431884766</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5965642929077148</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.210238456726074</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8934735655784607</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.23225998878479</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6283502578735352</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.220936059951782</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8922094702720642</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.221317768096924</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6017699241638184</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.209997653961182</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8933980464935303</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.230958461761475</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.631147563457489</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.219640254974365</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.891936719417572</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.221245765686035</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6022904515266418</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.209927320480347</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8933150768280029</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.23228120803833</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6315378546714783</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.220962762832642</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8920952677726746</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.221500158309937</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6002082228660583</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.210184812545776</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.893305778503418</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.231775045394897</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6323184967041016</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.220458984375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8920223712921143</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.22122049331665</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6048932671546936</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.20990777015686</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.893302321434021</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.232102632522583</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6300416588783264</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.220791101455688</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8921840786933899</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.221239328384399</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6048932671546936</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.209929466247559</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.893230140209198</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.231177806854248</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6291308999061584</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.21986985206604</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8918659090995789</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.221139192581177</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6111400127410889</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.209832668304443</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8931921720504761</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.230864763259888</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.630757212638855</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.21955943107605</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8919211030006409</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.221214771270752</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6095783710479736</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.20991039276123</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8931713104248047</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.230530977249146</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6310824751853943</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.219228506088257</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8919070363044739</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.221122741699219</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6106194853782654</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.209821462631226</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8931365609169006</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.232385873794556</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.631602942943573</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.221086502075195</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8919268250465393</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.221178770065308</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6106194853782654</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.209881782531738</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8931688666343689</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3.232108354568481</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6280900239944458</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.220811367034912</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8918103575706482</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.22095775604248</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6095783710479736</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.209665298461914</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8932052254676819</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3.232248306274414</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6323184967041016</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.220955610275269</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8919425010681152</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.221039056777954</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6054138541221619</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.209748983383179</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8932186961174011</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3.232381105422974</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6268540024757385</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.221092224121094</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8922015428543091</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.221263647079468</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6054138541221619</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.209977865219116</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8932002782821655</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3.230611562728882</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6332942843437195</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.219324588775635</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8919193148612976</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.221218824386597</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6085371971130371</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.209933996200562</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8931673169136047</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.229461669921875</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6320582628250122</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.21817946434021</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8917638063430786</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.221363067626953</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6080166697502136</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.210080862045288</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.893106997013092</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3.231047391891479</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6304969787597656</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.21976637840271</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.891916036605835</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.221325874328613</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6106194853782654</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.210046291351318</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8930903077125549</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_squared_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>val_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.626298666000366</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3598100543022156</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.409872055053711</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9271986484527588</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.472229480743408</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7147319316864014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.320907592773438</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.922200620174408</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.467452526092529</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.409640908241272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.346275091171265</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9216504096984863</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.413347005844116</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5960437059402466</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.317538022994995</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9214223623275757</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.411648511886597</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4348165392875671</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.334052562713623</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9202595949172974</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.38445782661438</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6153045296669006</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.322518110275269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9214063882827759</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.37787389755249</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4620738923549652</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.327193975448608</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9191097617149353</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.353195190429688</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5981259942054749</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.312342405319214</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9195346832275391</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.361552476882935</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4571948945522308</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.327570199966431</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9195999503135681</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.342271089553833</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6054138541221619</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.313868522644043</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9197044968605042</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.349619626998901</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4767759442329407</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.325458288192749</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9191092848777771</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.332703590393066</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6007288098335266</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.311836957931519</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9187353849411011</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.342861413955688</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4859484732151031</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.32427453994751</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9187057018280029</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.328224658966064</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6064549684524536</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.311581611633301</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.918871283531189</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.336984872817993</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.494015097618103</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.321380615234375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9178616404533386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.336459398269653</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6184278726577759</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.321640491485596</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9217697978019714</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.337232351303101</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4943403601646423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.323168516159058</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9183880686759949</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.323024749755859</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5913586616516113</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.309567928314209</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9191352128982544</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.336977958679199</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4793781042098999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.323678731918335</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9185913801193237</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.318983316421509</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5913586616516113</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.305861234664917</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.916888415813446</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.333965539932251</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5001951456069946</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.320838212966919</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9176022410392761</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.329692840576172</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6121811270713806</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.316257476806641</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9202023148536682</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.332838773727417</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5099531412124634</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.31953501701355</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9171286821365356</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.329377889633179</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6179073452949524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.315917491912842</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9203974604606628</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.333046436309814</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5076763033866882</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.319429636001587</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9171834588050842</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.328609466552734</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6163456439971924</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.314948558807373</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9189748764038086</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.321035623550415</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5303798913955688</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.308064937591553</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.914727509021759</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.319875717163086</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6153045296669006</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.307290554046631</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9150909781455994</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.316744804382324</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5464481115341187</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.304484367370605</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9132093787193298</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.321071624755859</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6184278726577759</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.309059858322144</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9148018360137939</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_squared_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>val_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.292466402053833</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.528883695602417</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.292466402053833</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9085198640823364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.781502246856689</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2457053661346436</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.781502246856689</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9439766407012939</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.27088737487793</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5658990144729614</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.27088737487793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9021905064582825</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.450634717941284</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1087974980473518</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.450634717941284</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9379149675369263</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.260757923126221</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5745511054992676</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.260757923126221</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.899600088596344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.444421768188477</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1087974980473518</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.444421768188477</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9652655124664307</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.255986452102661</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5759172439575195</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.255986452102661</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.898314893245697</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23.86337280273438</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1087974980473518</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.86337280273438</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.136031270027161</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.249358892440796</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5754618644714355</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.249358892440796</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8964767456054688</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.774831295013428</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1087974980473518</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.774831295013428</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.058672308921814</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.219112634658813</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5931563973426819</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.219112634658813</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8892078399658203</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.441234111785889</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2457053661346436</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.441234111785889</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9266543388366699</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.198022842407227</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.618852436542511</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.198022842407227</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8836730718612671</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.383121728897095</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2977615892887115</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.383121728897095</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9361708164215088</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.174278736114502</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6314077377319336</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.174278736114502</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8779358267784119</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.443777084350586</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1910463273525238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.443777084350586</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9434663653373718</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.137763977050781</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.641751229763031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.137763977050781</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8686404228210449</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.113233089447021</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6397709250450134</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.113233089447021</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9844087958335876</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.101287603378296</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6552172899246216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.101287603378296</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8579083681106567</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.403828382492065</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6533055901527405</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.403828382492065</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9370700716972351</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.067765474319458</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6796122789382935</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.067765474319458</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8474250435829163</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.318338394165039</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5273295044898987</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.318338394165039</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.89339679479599</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.052228927612305</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6781811118125916</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.052228927612305</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8429651260375977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.333847761154175</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5137948989868164</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.333847761154175</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8886123299598694</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.042522668838501</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6777257323265076</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.042522668838501</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8396580219268799</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.365827798843384</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4154086410999298</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.365827798843384</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8909979462623596</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.032178640365601</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6782461404800415</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.032178640365601</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8365215659141541</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.341692686080933</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4440395534038544</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.341692686080933</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8899394869804382</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.024745225906372</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6744730472564697</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.024745225906372</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8351763486862183</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.299605369567871</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5476314425468445</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.299605369567871</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.88462233543396</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.022760391235352</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6795472502708435</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.022760391235352</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8340882658958435</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.29219126701355</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5684539079666138</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.29219126701355</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8842324614524841</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.022879123687744</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6757741570472717</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.022879123687744</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8338292837142944</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.297625064849854</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5882353186607361</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.297625064849854</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8834251761436462</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.021527290344238</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6785063743591309</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.021527290344238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.83353590965271</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.295095682144165</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5710567235946655</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.295095682144165</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8841936588287354</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.020593404769897</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6810434460639954</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.020593404769897</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8332390189170837</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.306240320205688</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5694950819015503</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.306240320205688</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8837926387786865</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.019552946090698</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6803278923034668</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.019552946090698</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8329254388809204</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.302130222320557</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.567412793636322</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.302130222320557</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.883746862411499</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.018634557723999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6777907609939575</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.018634557723999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8326393961906433</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.306087255477905</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5663716793060303</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.306087255477905</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8839523196220398</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_squared_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_loss</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>val_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>val_mean_squared_error</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.30617356300354</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5206218957901001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.30617356300354</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9072906970977783</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.362109899520874</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4013534486293793</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.362109899520874</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9089078903198242</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.283493518829346</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5498959422111511</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.283493518829346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9038211703300476</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.43913722038269</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3086933791637421</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.43913722038269</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9094225168228149</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.271151542663574</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5641425848007202</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.271151542663574</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9011802673339844</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.484022378921509</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2342529892921448</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.484022378921509</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9162473082542419</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.261474847793579</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.58027583360672</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.261474847793579</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8991032838821411</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.529698848724365</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2014575749635696</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.529698848724365</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9083191156387329</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.001000000047497451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.240999221801758</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6250325441360474</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.240999221801758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8957027196884155</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.290532827377319</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4190525710582733</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.290532827377319</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8975653052330017</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.232194662094116</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6228857636451721</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.232194662094116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8931946754455566</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.283111333847046</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4044768214225769</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.283111333847046</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8957619071006775</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.226279497146606</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6245120763778687</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.226279497146606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8914802670478821</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.284560441970825</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4190525710582733</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.284560441970825</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8942312598228455</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.220618724822998</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6233411431312561</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.220618724822998</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8897346258163452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.288832187652588</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3904216587543488</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.288832187652588</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8943964242935181</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.214751005172729</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6228857636451721</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.214751005172729</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8878288269042969</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.292619705200195</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3722019791603088</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.292619705200195</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8957093954086304</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0001000000047497451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.207731962203979</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6210642457008362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.207731962203979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8861559629440308</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.23606014251709</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4565330445766449</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.23606014251709</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8894063234329224</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.205650091171265</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6254879236221313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.205650091171265</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.885664701461792</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.23333477973938</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4591358602046967</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.23333477973938</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8891979455947876</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.204681396484375</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6269841194152832</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.204681396484375</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8853166103363037</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.230983734130859</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4617386758327484</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.230983734130859</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.888883113861084</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.203856706619263</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6282201409339905</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.203856706619263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8850291967391968</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.22923731803894</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4643414914608002</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.22923731803894</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8885496854782104</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.203082084655762</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6300416588783264</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.203082084655762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8847667574882507</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.227936029434204</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4674648642539978</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.227936029434204</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8882618546485901</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.202323198318481</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6308873295783997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.202323198318481</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8845034837722778</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.226883411407471</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4674648642539978</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.226883411407471</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8880775570869446</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.201582670211792</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6305620670318604</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.201582670211792</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8842442631721497</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.225970268249512</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4700676798820496</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.225970268249512</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8878763318061829</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.200865507125854</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6305620670318604</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.200865507125854</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8839919567108154</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.225379943847656</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4690265357494354</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.225379943847656</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8877959847450256</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.200169563293457</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6313427090644836</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.200169563293457</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8837394714355469</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.224402666091919</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4705882370471954</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.224402666091919</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8875819444656372</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.199484586715698</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.6315378546714783</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.199484586715698</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8834946751594543</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.22368049621582</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4711087942123413</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.22368049621582</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8874003887176514</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.19883394241333</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6321233510971069</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.19883394241333</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.883264422416687</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.222986698150635</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4716293513774872</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.222986698150635</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8872706890106201</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.19819188117981</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6329690217971802</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.19819188117981</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8830263018608093</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.22228479385376</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4731910526752472</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.22228479385376</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8870314955711365</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.19757080078125</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.6339448094367981</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.19757080078125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8827967047691345</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.221240997314453</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4742321670055389</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.221240997314453</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8868057727813721</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.196964025497437</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6343351602554321</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.196964025497437</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8825778365135193</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.220604658126831</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.475793868303299</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.220604658126831</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8866505026817322</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.19635796546936</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6349206566810608</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.19635796546936</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8823583722114563</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.219413042068481</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4778760969638824</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.219413042068481</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8863906860351562</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.195757865905762</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6350507140159607</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.195757865905762</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.88213711977005</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.218634843826294</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4799583554267883</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.218634843826294</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8861422538757324</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.195165872573853</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6351158022880554</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.195165872573853</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8819242715835571</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.217944145202637</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4799583554267883</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.217944145202637</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8860119581222534</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.194578647613525</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6355060935020447</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.194578647613525</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.881714403629303</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.21724271774292</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4841228425502777</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.21724271774292</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.885836660861969</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.193999052047729</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.636677086353302</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.193999052047729</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.881497323513031</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.216725587844849</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4856845438480377</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.216725587844849</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8857001066207886</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.193420648574829</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6368722319602966</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.193420648574829</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8812800645828247</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.216032028198242</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.4898490309715271</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.216032028198242</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8855296969413757</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.192856550216675</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6371974945068359</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.192856550216675</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8810594081878662</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.215262174606323</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4929724037647247</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.215262174606323</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8853824734687805</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.192300319671631</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6371974945068359</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.192300319671631</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8808504343032837</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.214468717575073</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4966163337230682</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.214468717575073</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8851631283760071</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.191745519638062</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6379781365394592</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.191745519638062</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8806501626968384</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.214009523391724</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4986985921859741</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.214009523391724</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8850005269050598</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.191200733184814</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6375227570533752</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.191200733184814</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8804463148117065</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.213638067245483</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.49921914935112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.213638067245483</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.88487708568573</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.190659761428833</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.63758784532547</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.190659761428833</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8802403807640076</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.213140726089478</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5039042234420776</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.213140726089478</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.884685218334198</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.190117359161377</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6377179026603699</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.190117359161377</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.880040168762207</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.21259880065918</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5049453377723694</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.21259880065918</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.884540855884552</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.189583301544189</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6381082534790039</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.189583301544189</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8798429369926453</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.212297439575195</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5065070390701294</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.212297439575195</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8844059705734253</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.189064502716064</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6379781365394592</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.189064502716064</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8796491026878357</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.212064027786255</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5065070390701294</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.212064027786255</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8842907547950745</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3.188549757003784</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6381732821464539</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.188549757003784</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.879460334777832</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.211560010910034</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5080687403678894</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.211560010910034</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8841931819915771</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.188047647476196</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6379781365394592</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.188047647476196</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8792761564254761</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.21128511428833</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5065070390701294</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.21128511428833</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8840577602386475</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.187542676925659</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6387587785720825</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.187542676925659</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8790846467018127</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.210841178894043</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5080687403678894</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.210841178894043</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8839483857154846</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.187055826187134</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6381732821464539</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.187055826187134</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8789008855819702</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.210289239883423</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5075481534004211</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.210289239883423</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8837660551071167</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.186570882797241</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6386286616325378</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.186570882797241</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8787179589271545</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.209784030914307</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5101509690284729</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.209784030914307</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8836396932601929</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3.186087846755981</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.638043224811554</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3.186087846755981</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8785413503646851</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.209176778793335</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5143154859542847</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.209176778793335</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8835159540176392</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3.185609817504883</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6387587785720825</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.185609817504883</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8783601522445679</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.208685874938965</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5143154859542847</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.208685874938965</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8833260536193848</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3.185135126113892</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6384985446929932</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.185135126113892</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8781888484954834</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.208427906036377</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5174388289451599</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.208427906036377</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8832442164421082</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3.184663057327271</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.6388888955116272</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.184663057327271</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8780156970024109</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.207943439483643</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5184799432754517</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.207943439483643</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8830798268318176</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.184200525283813</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.6393442749977112</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.184200525283813</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.8778492212295532</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.207550525665283</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5205622315406799</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.207550525665283</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8829215168952942</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3.183725833892822</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.6393442749977112</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.183725833892822</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8776856064796448</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.207307815551758</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5221238732337952</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.207307815551758</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8828641176223755</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3.183262825012207</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.6390190124511719</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.183262825012207</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.87752366065979</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.206953048706055</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5242061614990234</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.206953048706055</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.882655143737793</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3.182805299758911</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.6398646831512451</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3.182805299758911</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8773557543754578</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.206689834594727</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5283706188201904</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.206689834594727</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8825209140777588</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.182334661483765</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.6405802965164185</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.182334661483765</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8771928548812866</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.20636248588562</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5320145487785339</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.20636248588562</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8823635578155518</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.181888103485107</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.6407103538513184</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.181888103485107</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.877032995223999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.205989837646484</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5309734344482422</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.205989837646484</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8821817636489868</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3.18144154548645</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6409705877304077</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.18144154548645</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8768802285194397</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.205596208572388</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5304529070854187</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.205596208572388</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.882072925567627</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3.180984258651733</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.6416211128234863</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.180984258651733</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8767222166061401</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.205221176147461</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5320145487785339</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.205221176147461</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8818747997283936</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3.180541515350342</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.6420114636421204</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.180541515350342</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.876569926738739</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.204827308654785</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5325351357460022</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.204827308654785</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8817635178565979</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3.180098295211792</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.6419463753700256</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.180098295211792</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.8764121532440186</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.204596757888794</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5330557227134705</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.204596757888794</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8816506862640381</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3.1796555519104</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6420114636421204</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.1796555519104</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8762574195861816</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.204173803329468</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.535137951374054</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3.204173803329468</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8815126419067383</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3.179216384887695</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6433125138282776</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.179216384887695</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8761115670204163</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.203853130340576</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.5377407670021057</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.203853130340576</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8813890218734741</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3.17877721786499</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.6440281271934509</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3.17877721786499</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.8759640455245972</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.203606128692627</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.5387818813323975</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.203606128692627</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8812484741210938</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3.178340911865234</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.6443533897399902</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.178340911865234</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8758133053779602</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.203372478485107</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5398229956626892</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.203372478485107</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8811191916465759</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3.177907943725586</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.6440931558609009</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.177907943725586</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8756663799285889</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.203189134597778</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5419052839279175</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.203189134597778</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8809812068939209</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.177472591400146</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.6444834470748901</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.177472591400146</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8755236268043518</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.202946901321411</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5476314425468445</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.202946901321411</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8808231353759766</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.17705249786377</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.6448737978935242</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.17705249786377</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8753806352615356</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.20248007774353</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5491931438446045</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.20248007774353</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8807084560394287</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.176630258560181</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.6452640891075134</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.176630258560181</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8752391934394836</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.202007293701172</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.549713671207428</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.202007293701172</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.880586564540863</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.176205158233643</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6459146738052368</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.176205158233643</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8751022815704346</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.20158314704895</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.551275372505188</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.20158314704895</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8804280757904053</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.175778150558472</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6460447311401367</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3.175778150558472</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8749644160270691</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.201297283172607</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.549713671207428</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.201297283172607</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.8803539872169495</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.175359010696411</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.6459797024726868</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.175359010696411</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8748214840888977</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.200913667678833</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5517959594726562</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.200913667678833</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8801515102386475</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3.174946069717407</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6461098194122314</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.174946069717407</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8746788501739502</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.200509071350098</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5538781881332397</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.200509071350098</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.879973292350769</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.174538373947144</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6466953158378601</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.174538373947144</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8745417594909668</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.200151681900024</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5575221180915833</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3.200151681900024</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8798280358314514</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3.174131393432617</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6471506357192993</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.174131393432617</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8744151592254639</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.199824571609497</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.5611660480499268</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.199824571609497</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.8796617984771729</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.173728942871094</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.647280752658844</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.173728942871094</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8742929697036743</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.199649572372437</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.563248336315155</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.199649572372437</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8795289993286133</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3.173329830169678</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.6469554901123047</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3.173329830169678</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.874167799949646</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.19945216178894</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5663716793060303</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.19945216178894</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8793705701828003</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.172934293746948</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6476060152053833</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.172934293746948</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8740332722663879</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.199118375778198</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.565851092338562</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.199118375778198</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.879252552986145</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3.172531604766846</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6474108695983887</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.172531604766846</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8739129900932312</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.198599815368652</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.5700156092643738</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.198599815368652</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.8791096806526184</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3.172140598297119</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.6475409865379333</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3.172140598297119</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8737850785255432</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.198469638824463</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.5710567235946655</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.198469638824463</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8790302872657776</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3.171743154525757</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.647736132144928</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.171743154525757</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8736592531204224</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.198141098022461</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.5752212405204773</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.198141098022461</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8788853287696838</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3.171353101730347</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6476060152053833</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3.171353101730347</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.87353515625</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.197970151901245</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.576262354850769</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.197970151901245</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.878742516040802</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3.17097282409668</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.6475409865379333</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.17097282409668</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8734169006347656</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.197844743728638</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5767829418182373</v>
+      </c>
+      <c r="G79" t="n">
+        <v>3.197844743728638</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8786419630050659</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>3.170587301254272</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.6475409865379333</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.170587301254272</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8732919692993164</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.197502851486206</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5788651704788208</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.197502851486206</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8784801363945007</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>3.170200347900391</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.647671103477478</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.170200347900391</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.873170018196106</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.197013139724731</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5788651704788208</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.197013139724731</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.8783233761787415</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>3.169820547103882</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6482565999031067</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.169820547103882</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8730546236038208</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.196805238723755</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5814679861068726</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.196805238723755</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8781543374061584</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3.169442415237427</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.6483216285705566</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.169442415237427</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.872941255569458</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.196386098861694</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5840708017349243</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3.196386098861694</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8780613541603088</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3.169066429138184</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.648581862449646</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.169066429138184</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8728272914886475</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.196071147918701</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5856325030326843</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3.196071147918701</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8779471516609192</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>3.168693542480469</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.6487119197845459</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.168693542480469</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8727107644081116</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.19576621055603</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5856325030326843</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.19576621055603</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8778408169746399</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>3.168321132659912</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.6492323875427246</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.168321132659912</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.872592568397522</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.195286750793457</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.5877147316932678</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3.195286750793457</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8776419162750244</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>3.167949199676514</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6490371823310852</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.167949199676514</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.8724784851074219</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.195013761520386</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5892764329910278</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3.195013761520386</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8775215148925781</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>3.167579174041748</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6489071249961853</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.167579174041748</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8723629713058472</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.194648742675781</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5918792486190796</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.194648742675781</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8774378895759583</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>3.167199373245239</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6489071249961853</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.167199373245239</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.87224942445755</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.194754362106323</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5923997759819031</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.194754362106323</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8773190975189209</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3.166813373565674</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6491672992706299</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.166813373565674</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.87213134765625</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.194739818572998</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.5981259942054749</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.194739818572998</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8771038055419922</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3.166430711746216</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6500130295753479</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.166430711746216</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.8720165491104126</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.194775104522705</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.6007288098335266</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.194775104522705</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8769407272338867</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.000000065687345e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3.165328025817871</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.6498178243637085</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.165328025817871</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.871799111366272</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.194672107696533</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.6127017140388489</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.194672107696533</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.8768017888069153</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3.165091991424561</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.6494925618171692</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.165091991424561</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.87184739112854</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.194388389587402</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6116605997085571</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3.194388389587402</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8768653869628906</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3.164999008178711</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.6501431465148926</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.164999008178711</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8718222975730896</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.194300651550293</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6116605997085571</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.194300651550293</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8768643736839294</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3.16493821144104</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.6504684090614319</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.16493821144104</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8717834949493408</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.194275617599487</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.6111400127410889</v>
+      </c>
+      <c r="G95" t="n">
+        <v>3.194275617599487</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8768556118011475</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3.164884567260742</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.6504684090614319</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.164884567260742</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.871748149394989</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.194256544113159</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6121811270713806</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3.194256544113159</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8768447637557983</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3.164837837219238</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.6506635546684265</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.164837837219238</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.8717207312583923</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.194254636764526</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.6127017140388489</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.194254636764526</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8768340945243835</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3.164788961410522</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.6506635546684265</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.164788961410522</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8716973066329956</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.194244623184204</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.6127017140388489</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3.194244623184204</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8768194913864136</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.00000011116208e-06</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3.164742469787598</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.6507285833358765</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.164742469787598</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.8716778755187988</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.194251298904419</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.6127017140388489</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3.194251298904419</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8768056631088257</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3.164700031280518</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6505984663963318</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.164700031280518</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.8716591596603394</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.194242238998413</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.6132223010063171</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.194242238998413</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8767948150634766</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3.164655447006226</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.6507936716079712</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.164655447006226</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8716425895690918</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.194245338439941</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6132223010063171</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3.194245338439941</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.8767749667167664</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.999999974752427e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>